--- a/files/Стеллажи СТК, СТКН, СТСО.xlsx
+++ b/files/Стеллажи СТК, СТКН, СТСО.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\_Разное\Manager\KOMPRED\Андрей\АВТОМАТ\1Автомат 2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="855" windowWidth="15450" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Стеллажи разборные СТК, СТСО  " sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Стеллажи разборные СТК, СТСО  '!$A$1:$I$59</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -269,11 +274,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +548,14 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1324,7 +1337,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
@@ -1598,46 +1611,17 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1710,15 +1694,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -1769,6 +1779,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1785,7 +1803,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>77561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1866,7 +1884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1898,9 +1916,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1932,6 +1951,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2107,14 +2127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
@@ -2128,7 +2148,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2160,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="24" thickBot="1">
+    <row r="2" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2150,57 +2170,57 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="28.5" thickBot="1">
+    <row r="3" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="129">
-        <v>2</v>
+      <c r="F3" s="182">
+        <v>0</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" thickBot="1">
+    <row r="4" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="130"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="182"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" thickBot="1">
+    <row r="5" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="130"/>
+      <c r="D5" s="168"/>
       <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="129"/>
+      <c r="F5" s="182"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="24" thickBot="1">
+    <row r="6" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2210,7 +2230,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="21" thickBot="1">
+    <row r="7" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2225,32 +2245,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1">
+    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="11">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="F8" s="11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G8" s="11">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24" thickBot="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -2258,57 +2278,60 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="24" thickBot="1">
+    <row r="10" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="12">
         <v>0</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="131">
+        <f>SUM(H15:H41)</f>
+        <v>111.855152</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="20.25">
+    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A12" s="142" t="s">
+    <row r="12" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="13" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="20" t="s">
         <v>16</v>
       </c>
@@ -2320,15 +2343,15 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1">
+    <row r="14" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="26" t="s">
         <v>20</v>
       </c>
@@ -2340,146 +2363,166 @@
       <c r="I14" s="24"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="15" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>1</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
       <c r="E15" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="30">
         <f>IF(F3=2,0,E62)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="24"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="G15" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="24">
+        <f>G15*F15</f>
+        <v>66</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="16" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <f>A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="33">
         <f>IF(F3=0,E65,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="24"/>
+        <v>5.3716607999999999</v>
+      </c>
+      <c r="G16" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" ref="H16:H17" si="0">G16*F16</f>
+        <v>13.429152</v>
+      </c>
       <c r="I16" s="23"/>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="17" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <f>A16+1</f>
         <v>3</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="33">
         <f>IF(F3=2,E63,0)</f>
-        <v>17.248000000000001</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="18" spans="1:10" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <f>A17+1</f>
         <v>4</v>
       </c>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
       <c r="E18" s="32" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="33">
         <f>IF(F3=0,E69,IF(F3=1,E69+E66,E66+E69))</f>
-        <v>12.308313600000002</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="24"/>
+        <v>7.4910000000000005</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <f>G18*F18</f>
+        <v>7.4910000000000005</v>
+      </c>
       <c r="I18" s="34"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="19" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <f>A18+1</f>
         <v>5</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="36">
         <f>E9*16</f>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:10" s="18" customFormat="1" ht="18">
+    <row r="20" spans="1:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <f>A19+1</f>
         <v>6</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="36">
         <f>E9*16</f>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" spans="1:10" s="18" customFormat="1" ht="18">
+    <row r="21" spans="1:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="39" t="s">
         <v>24</v>
       </c>
@@ -2491,15 +2534,15 @@
       <c r="I21" s="24"/>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="22" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="39" t="s">
         <v>24</v>
       </c>
@@ -2507,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
       <c r="J22" s="41"/>
     </row>
-    <row r="23" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="23" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>9</v>
       </c>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
       <c r="E23" s="32" t="s">
         <v>24</v>
       </c>
@@ -2531,84 +2574,89 @@
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="24" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <f>A23+1</f>
         <v>10</v>
       </c>
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="36">
         <v>4</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
+      <c r="G24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="129">
+        <f t="shared" ref="H24" si="1">G24*F24</f>
+        <v>2</v>
+      </c>
+      <c r="I24" s="129"/>
       <c r="J24" s="42"/>
     </row>
-    <row r="25" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="25" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="113">
         <v>11</v>
       </c>
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="138"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
       <c r="E25" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="36">
         <f>IF(F3=2,E9*2,F69*2*E9)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
       <c r="J25" s="42"/>
     </row>
-    <row r="26" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1">
+    <row r="26" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <v>12</v>
       </c>
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
       <c r="E26" s="43" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="44">
         <f>E9*16</f>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
       <c r="J26" s="42"/>
     </row>
-    <row r="27" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1">
+    <row r="27" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="150" t="s">
+      <c r="B27" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
       <c r="J27" s="42"/>
     </row>
-    <row r="28" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="28" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="123"/>
       <c r="C28" s="124"/>
@@ -2620,41 +2668,41 @@
       <c r="I28" s="48"/>
       <c r="J28" s="42"/>
     </row>
-    <row r="29" spans="1:10" s="18" customFormat="1" ht="20.25">
-      <c r="A29" s="148" t="s">
+    <row r="29" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="46"/>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
       <c r="J29" s="42"/>
     </row>
-    <row r="30" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1">
+    <row r="30" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
       <c r="H30" s="49"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="171"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
       <c r="E31" s="50" t="s">
         <v>34</v>
       </c>
@@ -2666,13 +2714,13 @@
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="172"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
       <c r="E32" s="52" t="s">
         <v>35</v>
       </c>
@@ -2684,18 +2732,18 @@
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="53">
         <v>1</v>
       </c>
-      <c r="B33" s="154" t="s">
+      <c r="B33" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="156"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="54">
         <f>(0.1+E9*0.025)*F33</f>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F33" s="116">
         <v>2</v>
@@ -2705,18 +2753,18 @@
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>2</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="159"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="146"/>
       <c r="E34" s="56">
         <f>IF(E10=0,0.2+0.03*E9,0.2+0.03*E9+0.05*E9*E8/1000)*F34</f>
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F34" s="117">
         <v>1</v>
@@ -2726,18 +2774,18 @@
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>3</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="159"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="146"/>
       <c r="E35" s="56">
         <f>(0.1+(E9*0.05)*F35)</f>
-        <v>0.30000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="F35" s="117">
         <v>1</v>
@@ -2747,18 +2795,18 @@
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>4</v>
       </c>
-      <c r="B36" s="157" t="s">
+      <c r="B36" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="158"/>
-      <c r="D36" s="159"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
       <c r="E36" s="56">
         <f>(0.2+0.04*E9+E9*0.02)*F36</f>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F36" s="117">
         <v>2</v>
@@ -2768,7 +2816,7 @@
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>5</v>
       </c>
@@ -2779,7 +2827,7 @@
       <c r="D37" s="111"/>
       <c r="E37" s="108">
         <f>0.1*E9</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="118">
         <v>1</v>
@@ -2789,7 +2837,7 @@
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>6</v>
       </c>
@@ -2809,18 +2857,18 @@
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>7</v>
       </c>
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="161"/>
-      <c r="D39" s="162"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="149"/>
       <c r="E39" s="112">
         <f>(0.2+0.00015*E8)*F39</f>
-        <v>0.29000000000000004</v>
+        <v>0.3725</v>
       </c>
       <c r="F39" s="117">
         <v>1</v>
@@ -2830,15 +2878,15 @@
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55">
         <v>8</v>
       </c>
-      <c r="B40" s="166" t="s">
+      <c r="B40" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="168"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="155"/>
       <c r="E40" s="57">
         <v>0.3</v>
       </c>
@@ -2850,7 +2898,7 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25">
+    <row r="41" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2859,15 +2907,20 @@
       </c>
       <c r="E41" s="125">
         <f>SUM(E33:E40)</f>
-        <v>3.3899999999999997</v>
+        <v>3.8224999999999998</v>
       </c>
       <c r="F41" s="122"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="59"/>
+      <c r="G41" s="51">
+        <v>6</v>
+      </c>
+      <c r="H41" s="59">
+        <f>G41*E41</f>
+        <v>22.934999999999999</v>
+      </c>
       <c r="I41" s="59"/>
       <c r="J41" s="59"/>
     </row>
-    <row r="42" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1">
+    <row r="42" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -2879,16 +2932,16 @@
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="43" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
-      <c r="B43" s="175" t="s">
+      <c r="B43" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="D43" s="177"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="126">
         <f>E41*0.9</f>
-        <v>3.0509999999999997</v>
+        <v>3.4402499999999998</v>
       </c>
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
@@ -2896,33 +2949,32 @@
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" s="18" customFormat="1" ht="20.25">
+    <row r="44" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="167"/>
       <c r="E44" s="128">
         <f>E41*0.8</f>
-        <v>2.7119999999999997</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
-      <c r="H44" s="49"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1">
+    <row r="45" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="182"/>
-      <c r="D45" s="183"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="127">
         <f>E41*0.7</f>
-        <v>2.3729999999999998</v>
+        <v>2.6757499999999999</v>
       </c>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
@@ -2930,7 +2982,7 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="46" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -2942,7 +2994,7 @@
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="47" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -2954,7 +3006,7 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="48" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -2968,7 +3020,7 @@
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="49" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -2980,7 +3032,7 @@
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="50" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -2992,7 +3044,7 @@
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="51" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -3004,7 +3056,7 @@
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="52" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -3016,7 +3068,7 @@
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" s="18" customFormat="1" ht="15.75">
+    <row r="53" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -3028,7 +3080,7 @@
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="61"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -3040,19 +3092,19 @@
       <c r="I54" s="62"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1">
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="14"/>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
@@ -3064,7 +3116,7 @@
       <c r="I56" s="62"/>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="64"/>
       <c r="C57" s="63"/>
@@ -3076,7 +3128,7 @@
       <c r="I57" s="62"/>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
@@ -3088,7 +3140,7 @@
       <c r="I58" s="62"/>
       <c r="J58" s="14"/>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="65"/>
       <c r="C59" s="66"/>
@@ -3100,33 +3152,33 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="65"/>
       <c r="C60" s="66"/>
-      <c r="D60" s="164" t="s">
+      <c r="D60" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="164"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="151"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151"/>
       <c r="I60" s="71"/>
       <c r="J60" s="70"/>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="65"/>
       <c r="C61" s="66"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
       <c r="I61" s="71"/>
       <c r="J61" s="70"/>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="65"/>
       <c r="C62" s="70"/>
@@ -3135,27 +3187,27 @@
       </c>
       <c r="E62" s="73">
         <f>IF(F3=2,0,F62*(F8+100)*(E8+100)*0.8*8*1.1/1000000)</f>
-        <v>0</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="F62" s="74">
         <f>IF(F3=2,0,E9)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G62" s="75">
         <f>F62</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H62" s="76">
         <f>G62*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I62" s="77">
         <f>G62*8</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J62" s="70"/>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="65"/>
       <c r="C63" s="70"/>
@@ -3164,27 +3216,27 @@
       </c>
       <c r="E63" s="73">
         <f>IF(F3=2,F63*(F8+100)*(E8+100)*1*8*1.1/1000000,0)</f>
-        <v>17.248000000000001</v>
+        <v>0</v>
       </c>
       <c r="F63" s="74">
         <f>IF(F3=2,E9,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G63" s="75">
         <f>F63</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" s="76">
         <f>G63*6</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I63" s="77">
         <f>G63*8</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J63" s="70"/>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1">
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="65"/>
       <c r="C64" s="70"/>
@@ -3196,7 +3248,7 @@
       <c r="I64" s="78"/>
       <c r="J64" s="70"/>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1">
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="65"/>
       <c r="C65" s="70"/>
@@ -3205,24 +3257,24 @@
       </c>
       <c r="E65" s="73">
         <f>IF(F3=0,(G8-30)*243*1.2*8*1.1*F65/1000000,0)</f>
-        <v>0</v>
+        <v>5.3716607999999999</v>
       </c>
       <c r="F65" s="74">
         <f>IF(F3=0,4/3,0)</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G65" s="75">
         <f>F65</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H65" s="76">
         <f>G65*4</f>
-        <v>0</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="I65" s="77"/>
       <c r="J65" s="70"/>
     </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1">
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="65"/>
       <c r="C66" s="70"/>
@@ -3231,27 +3283,27 @@
       </c>
       <c r="E66" s="73">
         <f>IF(F3&gt;0,(G8-30)*246*1.2*8*1.1*F66/1000000,0)</f>
-        <v>6.1307136</v>
+        <v>0</v>
       </c>
       <c r="F66" s="74">
         <f>IF(F3&gt;0,4/3,0)</f>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G66" s="75">
         <f>F66</f>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H66" s="76">
         <f>G66*12</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I66" s="77">
         <f>G66*3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" s="70"/>
     </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1">
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="65"/>
       <c r="C67" s="70"/>
@@ -3263,7 +3315,7 @@
       <c r="I67" s="78"/>
       <c r="J67" s="70"/>
     </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1">
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="65"/>
       <c r="C68" s="66"/>
@@ -3272,11 +3324,11 @@
       </c>
       <c r="E68" s="73">
         <f>125*(E8-15)*8*1*1.1*E9/1000000</f>
-        <v>2.5739999999999998</v>
+        <v>6.2424999999999997</v>
       </c>
       <c r="F68" s="74">
         <f>IF(F3=2,E9,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G68" s="75">
         <v>6</v>
@@ -3290,7 +3342,7 @@
       </c>
       <c r="J68" s="70"/>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1">
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="65"/>
       <c r="C69" s="66"/>
@@ -3299,18 +3351,18 @@
       </c>
       <c r="E69" s="73">
         <f>125*(E8-15)*8*1.2*1.1*E9*F69/1000000</f>
-        <v>6.1776000000000009</v>
+        <v>7.4910000000000005</v>
       </c>
       <c r="F69" s="74">
         <f>IF(F8&gt;500,2,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="75"/>
       <c r="H69" s="76"/>
       <c r="I69" s="77"/>
       <c r="J69" s="70"/>
     </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1">
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="65"/>
       <c r="C70" s="66"/>
@@ -3328,7 +3380,7 @@
       </c>
       <c r="J70" s="70"/>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1">
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="65"/>
       <c r="C71" s="66"/>
@@ -3340,7 +3392,7 @@
       <c r="I71" s="90"/>
       <c r="J71" s="70"/>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1">
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="65"/>
       <c r="C72" s="70"/>
@@ -3349,7 +3401,7 @@
       </c>
       <c r="E72" s="92">
         <f>G62+G63+G65+G66+G68</f>
-        <v>11.333333333333332</v>
+        <v>12.333333333333332</v>
       </c>
       <c r="F72" s="85"/>
       <c r="G72" s="85"/>
@@ -3357,7 +3409,7 @@
       <c r="I72" s="90"/>
       <c r="J72" s="70"/>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1">
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="65"/>
       <c r="C73" s="66"/>
@@ -3366,7 +3418,7 @@
       </c>
       <c r="E73" s="92">
         <f>H62+H63+H65+H66+H68</f>
-        <v>40</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="F73" s="85"/>
       <c r="G73" s="85"/>
@@ -3374,7 +3426,7 @@
       <c r="I73" s="90"/>
       <c r="J73" s="70"/>
     </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1">
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="65"/>
       <c r="C74" s="66"/>
@@ -3383,7 +3435,7 @@
       </c>
       <c r="E74" s="92">
         <f>I62+I63+I66+I68</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F74" s="85"/>
       <c r="G74" s="85"/>
@@ -3391,7 +3443,7 @@
       <c r="I74" s="90"/>
       <c r="J74" s="70"/>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1">
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="70"/>
@@ -3403,7 +3455,7 @@
       <c r="I75" s="70"/>
       <c r="J75" s="70"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="70"/>
@@ -3415,7 +3467,7 @@
       <c r="I76" s="70"/>
       <c r="J76" s="70"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75">
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3425,7 +3477,7 @@
       <c r="G77" s="99"/>
       <c r="H77" s="100"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3435,7 +3487,7 @@
       <c r="G78" s="99"/>
       <c r="H78" s="100"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="24"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
@@ -3443,23 +3495,23 @@
       <c r="F80" s="101"/>
       <c r="G80" s="101"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="24"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="153"/>
-      <c r="G81" s="153"/>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="24"/>
-      <c r="C82" s="153"/>
-      <c r="D82" s="153"/>
-      <c r="E82" s="153"/>
-      <c r="F82" s="153"/>
-      <c r="G82" s="153"/>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="24"/>
       <c r="C83" s="102"/>
       <c r="D83" s="102"/>
@@ -3467,7 +3519,7 @@
       <c r="F83" s="103"/>
       <c r="G83" s="103"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="24"/>
       <c r="C84" s="102"/>
       <c r="D84" s="102"/>
@@ -3475,7 +3527,7 @@
       <c r="F84" s="103"/>
       <c r="G84" s="103"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="24"/>
       <c r="C85" s="102"/>
       <c r="D85" s="102"/>
@@ -3483,7 +3535,7 @@
       <c r="F85" s="103"/>
       <c r="G85" s="103"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="24"/>
       <c r="C86" s="102"/>
       <c r="D86" s="102"/>
@@ -3491,7 +3543,7 @@
       <c r="F86" s="103"/>
       <c r="G86" s="103"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="24"/>
       <c r="C87" s="102"/>
       <c r="D87" s="104"/>
@@ -3499,7 +3551,7 @@
       <c r="F87" s="103"/>
       <c r="G87" s="103"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="24"/>
       <c r="C88" s="102"/>
       <c r="D88" s="104"/>
@@ -3507,7 +3559,7 @@
       <c r="F88" s="103"/>
       <c r="G88" s="103"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="24"/>
       <c r="C89" s="102"/>
       <c r="D89" s="104"/>
@@ -3515,7 +3567,7 @@
       <c r="F89" s="103"/>
       <c r="G89" s="103"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="24"/>
       <c r="C90" s="102"/>
       <c r="D90" s="104"/>
@@ -3523,7 +3575,7 @@
       <c r="F90" s="103"/>
       <c r="G90" s="103"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="24"/>
       <c r="C91" s="102"/>
       <c r="D91" s="104"/>
@@ -3531,7 +3583,7 @@
       <c r="F91" s="103"/>
       <c r="G91" s="103"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="24"/>
       <c r="C92" s="102"/>
       <c r="D92" s="102"/>
@@ -3539,7 +3591,7 @@
       <c r="F92" s="101"/>
       <c r="G92" s="101"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="24"/>
       <c r="C93" s="102"/>
       <c r="D93" s="102"/>
@@ -3547,7 +3599,7 @@
       <c r="F93" s="103"/>
       <c r="G93" s="103"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="24"/>
       <c r="C94" s="102"/>
       <c r="D94" s="102"/>
@@ -3555,7 +3607,7 @@
       <c r="F94" s="103"/>
       <c r="G94" s="103"/>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="24"/>
       <c r="C95" s="105"/>
       <c r="D95" s="106"/>
@@ -3563,7 +3615,7 @@
       <c r="F95" s="101"/>
       <c r="G95" s="101"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="24"/>
       <c r="C96" s="105"/>
       <c r="D96" s="106"/>
@@ -3571,7 +3623,7 @@
       <c r="F96" s="101"/>
       <c r="G96" s="101"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="24"/>
       <c r="C97" s="105"/>
       <c r="D97" s="106"/>
@@ -3579,7 +3631,7 @@
       <c r="F97" s="101"/>
       <c r="G97" s="101"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="24"/>
       <c r="C98" s="107"/>
       <c r="D98" s="106"/>
@@ -3587,7 +3639,7 @@
       <c r="F98" s="101"/>
       <c r="G98" s="101"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="24"/>
       <c r="C99" s="105"/>
       <c r="D99" s="106"/>
@@ -3595,7 +3647,7 @@
       <c r="F99" s="101"/>
       <c r="G99" s="101"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="24"/>
       <c r="C100" s="102"/>
       <c r="D100" s="102"/>
@@ -3603,7 +3655,7 @@
       <c r="F100" s="101"/>
       <c r="G100" s="101"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="24"/>
       <c r="C101" s="102"/>
       <c r="D101" s="102"/>
@@ -3611,7 +3663,7 @@
       <c r="F101" s="101"/>
       <c r="G101" s="101"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
@@ -3620,32 +3672,15 @@
       <c r="G102" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C81:G82"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="D60:H61"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:D23"/>
+  <mergeCells count="39">
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B17:D17"/>
@@ -3660,10 +3695,23 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C81:G82"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="D60:H61"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/Стеллажи СТК, СТКН, СТСО.xlsx
+++ b/files/Стеллажи СТК, СТКН, СТСО.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\_Разное\Manager\KOMPRED\Андрей\АВТОМАТ\1Автомат 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goods\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14280" windowHeight="1815"/>
   </bookViews>
   <sheets>
     <sheet name="Стеллажи разборные СТК, СТСО  " sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Стеллажи разборные СТК, СТСО  '!$A$1:$I$59</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1614,6 +1614,50 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1685,50 +1729,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2131,7 +2131,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2175,14 +2175,14 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="182">
+      <c r="F3" s="151">
         <v>0</v>
       </c>
       <c r="G3" s="3"/>
@@ -2193,14 +2193,14 @@
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="133"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="182"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -2209,14 +2209,14 @@
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="133"/>
       <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="182"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -2248,10 +2248,10 @@
     <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="176"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="11">
         <v>1150</v>
       </c>
@@ -2265,10 +2265,10 @@
     <row r="9" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="176"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="12">
         <v>5</v>
       </c>
@@ -2281,10 +2281,10 @@
     <row r="10" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="176"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="12">
         <v>0</v>
       </c>
@@ -2299,26 +2299,26 @@
     </row>
     <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
@@ -2327,11 +2327,11 @@
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="20" t="s">
         <v>16</v>
       </c>
@@ -2347,11 +2347,11 @@
       <c r="A14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="26" t="s">
         <v>20</v>
       </c>
@@ -2367,11 +2367,11 @@
       <c r="A15" s="29">
         <v>1</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="29" t="s">
         <v>22</v>
       </c>
@@ -2394,11 +2394,11 @@
         <f>A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="32" t="s">
         <v>22</v>
       </c>
@@ -2421,11 +2421,11 @@
         <f>A16+1</f>
         <v>3</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="32" t="s">
         <v>22</v>
       </c>
@@ -2448,11 +2448,11 @@
         <f>A17+1</f>
         <v>4</v>
       </c>
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="32" t="s">
         <v>22</v>
       </c>
@@ -2475,11 +2475,11 @@
         <f>A18+1</f>
         <v>5</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="32" t="s">
         <v>24</v>
       </c>
@@ -2497,11 +2497,11 @@
         <f>A19+1</f>
         <v>6</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
       <c r="E20" s="32" t="s">
         <v>24</v>
       </c>
@@ -2518,11 +2518,11 @@
       <c r="A21" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="39" t="s">
         <v>24</v>
       </c>
@@ -2538,11 +2538,11 @@
       <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="39" t="s">
         <v>24</v>
       </c>
@@ -2558,11 +2558,11 @@
       <c r="A23" s="32">
         <v>9</v>
       </c>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="32" t="s">
         <v>24</v>
       </c>
@@ -2579,11 +2579,11 @@
         <f>A23+1</f>
         <v>10</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="32" t="s">
         <v>24</v>
       </c>
@@ -2604,11 +2604,11 @@
       <c r="A25" s="113">
         <v>11</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
       <c r="E25" s="32" t="s">
         <v>24</v>
       </c>
@@ -2625,11 +2625,11 @@
       <c r="A26" s="43">
         <v>12</v>
       </c>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
       <c r="E26" s="43" t="s">
         <v>24</v>
       </c>
@@ -2644,11 +2644,11 @@
     </row>
     <row r="27" spans="1:10" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
@@ -2669,14 +2669,14 @@
       <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="135" t="s">
+      <c r="A29" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="46"/>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
@@ -2684,12 +2684,12 @@
     </row>
     <row r="30" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
       <c r="H30" s="49"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -2698,11 +2698,11 @@
       <c r="A31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="157"/>
-      <c r="D31" s="158"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="50" t="s">
         <v>34</v>
       </c>
@@ -2718,9 +2718,9 @@
       <c r="A32" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="159"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="181"/>
       <c r="E32" s="52" t="s">
         <v>35</v>
       </c>
@@ -2736,11 +2736,11 @@
       <c r="A33" s="53">
         <v>1</v>
       </c>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="143"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="54">
         <f>(0.1+E9*0.025)*F33</f>
         <v>0.45</v>
@@ -2757,11 +2757,11 @@
       <c r="A34" s="55">
         <v>2</v>
       </c>
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="146"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="56">
         <f>IF(E10=0,0.2+0.03*E9,0.2+0.03*E9+0.05*E9*E8/1000)*F34</f>
         <v>0.35</v>
@@ -2778,11 +2778,11 @@
       <c r="A35" s="55">
         <v>3</v>
       </c>
-      <c r="B35" s="144" t="s">
+      <c r="B35" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="56">
         <f>(0.1+(E9*0.05)*F35)</f>
         <v>0.35</v>
@@ -2799,11 +2799,11 @@
       <c r="A36" s="55">
         <v>4</v>
       </c>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="146"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="166"/>
       <c r="E36" s="56">
         <f>(0.2+0.04*E9+E9*0.02)*F36</f>
         <v>1</v>
@@ -2861,11 +2861,11 @@
       <c r="A39" s="55">
         <v>7</v>
       </c>
-      <c r="B39" s="147" t="s">
+      <c r="B39" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="148"/>
-      <c r="D39" s="149"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="112">
         <f>(0.2+0.00015*E8)*F39</f>
         <v>0.3725</v>
@@ -2882,11 +2882,11 @@
       <c r="A40" s="55">
         <v>8</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="154"/>
-      <c r="D40" s="155"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="175"/>
       <c r="E40" s="57">
         <v>0.3</v>
       </c>
@@ -2934,11 +2934,11 @@
     </row>
     <row r="43" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="164"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="184"/>
       <c r="E43" s="126">
         <f>E41*0.9</f>
         <v>3.4402499999999998</v>
@@ -2951,11 +2951,11 @@
     </row>
     <row r="44" spans="1:10" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="166"/>
-      <c r="D44" s="167"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="140"/>
       <c r="E44" s="128">
         <f>E41*0.8</f>
         <v>3.0579999999999998</v>
@@ -2967,11 +2967,11 @@
     </row>
     <row r="45" spans="1:10" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="133"/>
-      <c r="D45" s="134"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="154"/>
       <c r="E45" s="127">
         <f>E41*0.7</f>
         <v>2.6757499999999999</v>
@@ -3094,12 +3094,12 @@
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
-      <c r="B55" s="150"/>
-      <c r="C55" s="150"/>
-      <c r="D55" s="150"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="14"/>
@@ -3156,13 +3156,13 @@
       <c r="A60" s="14"/>
       <c r="B60" s="65"/>
       <c r="C60" s="66"/>
-      <c r="D60" s="151" t="s">
+      <c r="D60" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="151"/>
-      <c r="F60" s="151"/>
-      <c r="G60" s="151"/>
-      <c r="H60" s="151"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
       <c r="I60" s="71"/>
       <c r="J60" s="70"/>
     </row>
@@ -3170,11 +3170,11 @@
       <c r="A61" s="14"/>
       <c r="B61" s="65"/>
       <c r="C61" s="66"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
       <c r="I61" s="71"/>
       <c r="J61" s="70"/>
     </row>
@@ -3497,19 +3497,19 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="24"/>
-      <c r="C81" s="140"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="140"/>
+      <c r="C81" s="160"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="160"/>
+      <c r="G81" s="160"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="24"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="140"/>
+      <c r="C82" s="160"/>
+      <c r="D82" s="160"/>
+      <c r="E82" s="160"/>
+      <c r="F82" s="160"/>
+      <c r="G82" s="160"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="24"/>
@@ -3673,13 +3673,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C81:G82"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="D60:H61"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B25:D25"/>
@@ -3696,22 +3705,13 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C81:G82"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="D60:H61"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
